--- a/biology/Botanique/Calamintha/Calamintha.xlsx
+++ b/biology/Botanique/Calamintha/Calamintha.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Calamintha est un genre de plantes herbacées de la famille des Lamiaceae contenant 8 espèces appelées « calaments » originaires d'Europe, d'Asie et d'Amérique. 
 Selon certains auteurs, notamment les Jardins botaniques royaux de Kew et le système d'information taxonomique intégré, ce taxon ne serait plus valide et serait synonyme du genre Clinopodium.
@@ -512,7 +524,9 @@
           <t>Principales espèces en France</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Calamintha acinos - synonyme de Acinos arvensis et de Clinopodium acinos
 Calamintha alpina - synonyme de Acinos alpinus et de Clinopodium alpinum
@@ -557,7 +571,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces de Calamintha sont utilisées au Moyen-Orient pour fabriquer le Zahtar.
 </t>
@@ -588,7 +604,9 @@
           <t>Photos</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Clinopodium nepeta
